--- a/biology/Médecine/Dysgueusie/Dysgueusie.xlsx
+++ b/biology/Médecine/Dysgueusie/Dysgueusie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dysgueusie (ou paragueusie) est une altération du goût. Il en existe différents types[1] :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dysgueusie (ou paragueusie) est une altération du goût. Il en existe différents types :
 l'hypogueusie et l'agueusie (diminution et perte du goût) ;
 l'hétérogueusie (quand le goût perçu n'est pas celui attendu) et la cacogueusie (quand le goût perçu est anormalement désagréable) ;
 la pseudogueusie (perception gustative en l'absence de tout stimulus).
@@ -516,7 +528,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Rhume
 Sinusite
@@ -530,10 +544,10 @@
 Chimiothérapie
 Radiothérapie
 Produits de contraste iodés (utilisés au scanner) et gadolinés (pour une IRM) : sensation de goût métallique dans la bouche décrite par les patients
-Ingestion de pignons de pin autres que provenant de l'espèce pin parasol[2]
-Infections[3]
+Ingestion de pignons de pin autres que provenant de l'espèce pin parasol
+Infections
 Atteinte des voies respiratoires par accident due à l'absence de protection ou à une mauvaise protection contre le contact avec des produits chimiques
-Maladie à coronavirus 2019[4]</t>
+Maladie à coronavirus 2019</t>
         </is>
       </c>
     </row>
@@ -561,9 +575,11 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se fait à l’interrogatoire mais peut être objectivé par la gustométrie chimique ou par l’électrogustométrie[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se fait à l’interrogatoire mais peut être objectivé par la gustométrie chimique ou par l’électrogustométrie.
 </t>
         </is>
       </c>
@@ -592,7 +608,9 @@
           <t>Traitements possibles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Corriger les déficiences en zinc, sous la forme de gluconate de zinc (en)
 Amélioration post-radiothérapique[Quoi ?]
